--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8FE33-C3FA-4BC6-BAD5-114593D948C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1602A2-7DEA-48F1-B862-A364BEFA37F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="0" windowWidth="9615" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,9 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -511,7 +513,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
